--- a/map/4.6.xlsx
+++ b/map/4.6.xlsx
@@ -402,7 +402,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH11" sqref="AH11"/>
+      <selection activeCell="AK18" sqref="AK18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +505,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="L2" s="7"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -535,7 +535,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="L3" s="7"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -565,9 +565,9 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -575,8 +575,8 @@
       <c r="S4" s="3"/>
       <c r="T4" s="2"/>
       <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
@@ -592,22 +592,22 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="I5" s="7"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
@@ -622,22 +622,22 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="I6" s="7"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
@@ -655,9 +655,9 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
@@ -686,8 +686,8 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -712,12 +712,12 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="I9" s="7"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -742,12 +742,12 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -775,9 +775,9 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
@@ -838,13 +838,13 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
@@ -868,13 +868,13 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
@@ -898,13 +898,13 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
+      <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
@@ -959,8 +959,8 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
       <c r="R17" s="2"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
@@ -1025,10 +1025,10 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="7"/>
+      <c r="V19" s="3"/>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
+      <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
@@ -1055,10 +1055,10 @@
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="2"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
@@ -1117,8 +1117,8 @@
       <c r="U22" s="2"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
       <c r="Z22" s="3"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
